--- a/document/データファイル.xlsx
+++ b/document/データファイル.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077E0EC-7F3C-483B-B937-392F5BB58305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8762D84-4E7F-417A-9C0C-30D63DBDA18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{A9A3785F-477E-4FC8-9A7B-5E66FACEB1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="m_prefecture" sheetId="1" r:id="rId1"/>
+    <sheet name="m_job" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>prefecture_id</t>
   </si>
@@ -325,6 +326,70 @@
   </si>
   <si>
     <t>北海道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営者・役員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員（総合職）</t>
+  </si>
+  <si>
+    <t>会社員（一般職）</t>
+  </si>
+  <si>
+    <t>契約社員派遣社員</t>
+  </si>
+  <si>
+    <t>パートアルバイト</t>
+  </si>
+  <si>
+    <t>公務員（教職員除く）</t>
+  </si>
+  <si>
+    <t>教職員</t>
+  </si>
+  <si>
+    <t>医療関係者</t>
+  </si>
+  <si>
+    <t>自営業自由業</t>
+  </si>
+  <si>
+    <t>専業主婦主夫</t>
+  </si>
+  <si>
+    <t>大学生大学院生</t>
+  </si>
+  <si>
+    <t>専門学校生短大生</t>
+  </si>
+  <si>
+    <t>高校生</t>
+  </si>
+  <si>
+    <t>士業（公認会計士弁護士税理士司法書士）</t>
+  </si>
+  <si>
+    <t>無職</t>
+  </si>
+  <si>
+    <t>定年退職</t>
+  </si>
+  <si>
+    <t>その他（記述）</t>
+  </si>
+  <si>
+    <t>job_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>job_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>job_kana</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -414,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,4 +1356,336 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18940C8C-3B03-4F03-B31E-83B7D61F3A58}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/データファイル.xlsx
+++ b/document/データファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8762D84-4E7F-417A-9C0C-30D63DBDA18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468DDD4-95F0-49DE-BF7B-B31FAD779ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{A9A3785F-477E-4FC8-9A7B-5E66FACEB1BC}"/>
   </bookViews>

--- a/document/データファイル.xlsx
+++ b/document/データファイル.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468DDD4-95F0-49DE-BF7B-B31FAD779ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248B18E-9276-48A7-80FD-775A981C7320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{A9A3785F-477E-4FC8-9A7B-5E66FACEB1BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{A9A3785F-477E-4FC8-9A7B-5E66FACEB1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="m_prefecture" sheetId="1" r:id="rId1"/>
     <sheet name="m_job" sheetId="2" r:id="rId2"/>
+    <sheet name="purchase_table" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>prefecture_id</t>
   </si>
@@ -390,6 +391,42 @@
   </si>
   <si>
     <t>job_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/11/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -397,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +467,28 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="BIZ UDPゴシック"/>
       <family val="3"/>
@@ -479,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +556,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4F542C-6F23-4C6C-A029-D6B68D36D533}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1362,7 +1442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18940C8C-3B03-4F03-B31E-83B7D61F3A58}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1688,4 +1770,299 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF71D5-884D-4B4E-AAB9-FF4199A3020C}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/データファイル.xlsx
+++ b/document/データファイル.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsu\source\repos\Mitsu-1216\Businesssystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248B18E-9276-48A7-80FD-775A981C7320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ECC3CC-BC5E-4873-8742-46FDB218DD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{A9A3785F-477E-4FC8-9A7B-5E66FACEB1BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="3" xr2:uid="{A9A3785F-477E-4FC8-9A7B-5E66FACEB1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="m_prefecture" sheetId="1" r:id="rId1"/>
     <sheet name="m_job" sheetId="2" r:id="rId2"/>
     <sheet name="purchase_table" sheetId="4" r:id="rId3"/>
+    <sheet name="purchase_detail_table" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>prefecture_id</t>
   </si>
@@ -427,6 +428,22 @@
   </si>
   <si>
     <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase_detail_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -434,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,14 +484,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="BIZ UDPゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="BIZ UDPゴシック"/>
       <family val="3"/>
@@ -538,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,25 +566,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1776,290 +1779,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF71D5-884D-4B4E-AAB9-FF4199A3020C}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7BBDFF-9F30-442A-AAF2-89718A5DAAB5}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="11"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="11"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="11"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="11"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="11"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="11"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
